--- a/world_to_excel/save.xlsx
+++ b/world_to_excel/save.xlsx
@@ -528,12 +528,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4101821993081125171</t>
+          <t>99999999999999999</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4101821993081125171</t>
+          <t>8888888888888888</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>185380497791</t>
+          <t>11111554444</t>
         </is>
       </c>
     </row>
